--- a/Scrum/Project_Management.xlsx
+++ b/Scrum/Project_Management.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A43AAC-C56E-466D-9DA3-A613FE758987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08811956-11AC-49EB-9E76-FA74258A6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Burndown Chart s1" sheetId="1" r:id="rId1"/>
-    <sheet name="Burndown Chart s2" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown Chart s3" sheetId="3" r:id="rId3"/>
-    <sheet name="Burndown Chart s4" sheetId="6" r:id="rId4"/>
-    <sheet name="Task Dependecies" sheetId="4" r:id="rId5"/>
-    <sheet name="Gant Chart" sheetId="5" r:id="rId6"/>
+    <sheet name="Burndown Chart Sprint1" sheetId="7" r:id="rId1"/>
+    <sheet name="Burndown Chart s1" sheetId="1" r:id="rId2"/>
+    <sheet name="Burndown Chart s2" sheetId="2" r:id="rId3"/>
+    <sheet name="Burndown Chart s3" sheetId="3" r:id="rId4"/>
+    <sheet name="Burndown Chart s4" sheetId="6" r:id="rId5"/>
+    <sheet name="Task Dependecies" sheetId="4" r:id="rId6"/>
+    <sheet name="Gant Chart" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -39,86 +40,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+  <si>
+    <t>First Sprint Burndown Chart</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Initial Estimate time (Hours)</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Day 27</t>
+  </si>
+  <si>
+    <t>Day 28</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>1 day = 2/3 horas de trabalho max</t>
+  </si>
+  <si>
+    <t>BPMN Register Account</t>
+  </si>
+  <si>
+    <t>BPMN Post Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA: adicionar horas das tarefas das outras pessoas, fazer este preenchimento das horas na última reunião da semana </t>
+  </si>
+  <si>
+    <t>BPMN Get Notifications</t>
+  </si>
+  <si>
+    <t>BPMN Adicionar Contacto</t>
+  </si>
+  <si>
+    <t>BPMN Send a Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Adicionar User </t>
+  </si>
+  <si>
+    <t>Frontend Adicionar Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend Adicionar User </t>
+  </si>
+  <si>
+    <t>Backend Adicionar Contacto</t>
+  </si>
+  <si>
+    <t>BPMN Interact with Posts</t>
+  </si>
+  <si>
+    <t>BPMN Add Skill</t>
+  </si>
+  <si>
+    <t>BPMN Search Posts/People</t>
+  </si>
+  <si>
+    <t>BPMN Create and Reply to Listing</t>
+  </si>
+  <si>
+    <t>BPMN Create and Interact with Events</t>
+  </si>
+  <si>
+    <t>BPMN Create Groups</t>
+  </si>
+  <si>
+    <t>BPMN Discover Groups</t>
+  </si>
+  <si>
+    <t>BPMN AI Assistant</t>
+  </si>
+  <si>
+    <t>BPMN Post CV with anonymous reviews</t>
+  </si>
+  <si>
+    <t>BPMN Send GIFs in the comments</t>
+  </si>
+  <si>
+    <t>Functional Requirements – Task 2, 10, 11</t>
+  </si>
+  <si>
+    <t>Functional Requirements – Task 1, 16, 17</t>
+  </si>
+  <si>
+    <t>Functional Requirements – Task 3, 18, 19</t>
+  </si>
+  <si>
+    <t>Functional Requirements – Task 4, 12, 13</t>
+  </si>
+  <si>
+    <t>Functional Requirements da Task 5, 14, 15</t>
+  </si>
+  <si>
+    <t>Non-Functional Requirements</t>
+  </si>
+  <si>
+    <t>Frontend Enviar Mensagem</t>
+  </si>
+  <si>
+    <t>Frontend Notificações</t>
+  </si>
+  <si>
+    <t>Frontend Criar Post</t>
+  </si>
+  <si>
+    <t>Backend Enviar Mensagem</t>
+  </si>
+  <si>
+    <t>Backend Notificações</t>
+  </si>
+  <si>
+    <t>Backend Criar Post</t>
+  </si>
+  <si>
+    <t>Criação do Gant Chart</t>
+  </si>
+  <si>
+    <t>Completed Effort</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Ideal Burndown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
   <si>
     <t>Semana1 Burndown Chart</t>
   </si>
   <si>
-    <t>Task ID</t>
-  </si>
-  <si>
-    <t>Task Description</t>
-  </si>
-  <si>
-    <t>Initial Estimate time (Hours)</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>1 day = 2/3 horas de trabalho max</t>
-  </si>
-  <si>
     <t>BPMN Register Accout</t>
   </si>
   <si>
-    <t>BPMN Post Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTA: adicionar horas das tarefas das outras pessoas, fazer este preenchimento das horas na última reunião da semana </t>
-  </si>
-  <si>
     <t>BPMN get notification</t>
   </si>
   <si>
-    <t>BPMN Adicionar Contacto</t>
-  </si>
-  <si>
-    <t>BPMN Send a Message</t>
-  </si>
-  <si>
-    <t>Completed Effort</t>
-  </si>
-  <si>
-    <t>Remaining Effort</t>
-  </si>
-  <si>
-    <t>Ideal Burndown</t>
-  </si>
-  <si>
     <t>Semana2 Burndown Chart</t>
   </si>
   <si>
-    <t xml:space="preserve">Frontend Adicionar User </t>
-  </si>
-  <si>
-    <t>Frontend Adicionar Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend Adicionar User </t>
-  </si>
-  <si>
-    <t>Backend Adicionar Contacto</t>
-  </si>
-  <si>
     <t>BPMN interagir posts</t>
   </si>
   <si>
@@ -152,48 +301,9 @@
     <t>Semana3 Burndown Chart</t>
   </si>
   <si>
-    <t>Functional Requirements – Task 2, 10, 11</t>
-  </si>
-  <si>
-    <t>Functional Requirements – Task 1, 16, 17</t>
-  </si>
-  <si>
-    <t>Functional Requirements – Task 3, 18, 19</t>
-  </si>
-  <si>
-    <t>Functional Requirements – Task 4, 12, 13</t>
-  </si>
-  <si>
-    <t>Functional Requirements da Task 5, 14, 15</t>
-  </si>
-  <si>
-    <t>Non-Functional Requirements</t>
-  </si>
-  <si>
     <t>Semana4 Burndown Chart</t>
   </si>
   <si>
-    <t>Frontend Enviar Mensagem</t>
-  </si>
-  <si>
-    <t>Frontend Notificações</t>
-  </si>
-  <si>
-    <t>Frontend Criar Post</t>
-  </si>
-  <si>
-    <t>Backend Enviar Mensagem</t>
-  </si>
-  <si>
-    <t>Backend Notificações</t>
-  </si>
-  <si>
-    <t>Backend Criar Post</t>
-  </si>
-  <si>
-    <t>Criação do Gant Chart</t>
-  </si>
-  <si>
     <t>TASK DEPENDENCIES</t>
   </si>
   <si>
@@ -260,9 +370,6 @@
     <t>Task 4, 8</t>
   </si>
   <si>
-    <t>BPMN falar com AI...</t>
-  </si>
-  <si>
     <t>Functional Requirements da Task 2, 10, 11</t>
   </si>
   <si>
@@ -296,16 +403,37 @@
     <t>Todos</t>
   </si>
   <si>
+    <t>Frontend Messages</t>
+  </si>
+  <si>
     <t>Task 6, 7</t>
   </si>
   <si>
+    <t>Frontend Notifications</t>
+  </si>
+  <si>
     <t xml:space="preserve">- </t>
   </si>
   <si>
+    <t>Frontend Posts</t>
+  </si>
+  <si>
     <t>Task 6</t>
   </si>
   <si>
+    <t>Backend Messages</t>
+  </si>
+  <si>
     <t>Task 8, 9</t>
+  </si>
+  <si>
+    <t>Backend Notifications</t>
+  </si>
+  <si>
+    <t>Backend Posts</t>
+  </si>
+  <si>
+    <t>BPMN Main Process</t>
   </si>
   <si>
     <t>NOTA: Fazer baseado na tabela das task dependecies, podemos fazer no fim</t>
@@ -436,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -896,23 +1024,446 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,24 +1614,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,6 +1649,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,6 +1664,103 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,7 +1881,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Semana1 Burndown Chart</a:t>
+              <a:t>First Sprint Burndown Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1281,7 +1927,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s1'!$B$11</c:f>
+              <c:f>'Burndown Chart Sprint1'!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1302,10 +1948,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s1'!$C$11:$K$11</c:f>
+              <c:f>'Burndown Chart Sprint1'!$C$41:$AG$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,13 +1975,79 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85B9-4ACA-BF3E-231A00F458CA}"/>
+              <c16:uniqueId val="{00000004-EE94-4242-9935-AAD9AE6E895F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1359,7 +2071,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s1'!$B$12</c:f>
+              <c:f>'Burndown Chart Sprint1'!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1383,33 +2095,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s1'!$C$12:$K$12</c:f>
+              <c:f>'Burndown Chart Sprint1'!$C$42:$AG$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>30</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0">
-                  <c:v>30</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>25</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0">
-                  <c:v>18</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>8</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0">
-                  <c:v>4</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +2195,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-85B9-4ACA-BF3E-231A00F458CA}"/>
+              <c16:uniqueId val="{00000006-EE94-4242-9935-AAD9AE6E895F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,7 +2204,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s1'!$B$13</c:f>
+              <c:f>'Burndown Chart Sprint1'!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1450,32 +2228,98 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s1'!$C$13:$K$13</c:f>
+              <c:f>'Burndown Chart Sprint1'!$C$43:$AG$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>25.714285714285715</c:v>
+                  <c:v>149.65517241379311</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0">
-                  <c:v>21.428571428571431</c:v>
+                  <c:v>144.31034482758622</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>138.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>133.62068965517241</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>8.571428571428573</c:v>
+                  <c:v>128.27586206896552</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0">
-                  <c:v>4.2857142857142847</c:v>
+                  <c:v>122.93103448275862</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
+                  <c:v>117.58620689655172</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>112.24137931034483</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>106.89655172413794</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>101.55172413793103</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>96.206896551724128</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>90.862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>85.517241379310349</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>80.172413793103445</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>74.827586206896541</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>69.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>64.137931034482762</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>58.793103448275858</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>53.448275862068954</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>48.103448275862064</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>42.758620689655174</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>37.41379310344827</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>32.068965517241367</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>26.724137931034477</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>21.379310344827587</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>16.034482758620697</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>10.689655172413779</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>5.3448275862068897</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,7 +2328,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-85B9-4ACA-BF3E-231A00F458CA}"/>
+              <c16:uniqueId val="{00000008-EE94-4242-9935-AAD9AE6E895F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1718,7 +2562,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Semana2 Burndown Chart</a:t>
+              <a:t>Semana1 Burndown Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1764,7 +2608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s2'!$B$20</c:f>
+              <c:f>'Burndown Chart s1'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1778,17 +2622,14 @@
               <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s2'!$C$20:$K$20</c:f>
+              <c:f>'Burndown Chart s1'!$C$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1796,32 +2637,32 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-18B6-4D71-AE3B-8462CD46772E}"/>
+              <c16:uniqueId val="{00000000-85B9-4ACA-BF3E-231A00F458CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1845,7 +2686,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s2'!$B$21</c:f>
+              <c:f>'Burndown Chart s1'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1869,33 +2710,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s2'!$C$21:$K$21</c:f>
+              <c:f>'Burndown Chart s1'!$C$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>46</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +2744,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-18B6-4D71-AE3B-8462CD46772E}"/>
+              <c16:uniqueId val="{00000002-85B9-4ACA-BF3E-231A00F458CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,7 +2753,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart s2'!$B$22</c:f>
+              <c:f>'Burndown Chart s1'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1936,30 +2777,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart s2'!$C$22:$K$22</c:f>
+              <c:f>'Burndown Chart s1'!$C$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>44.571428571428569</c:v>
+                  <c:v>25.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0">
-                  <c:v>37.142857142857139</c:v>
+                  <c:v>21.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>29.714285714285715</c:v>
+                  <c:v>17.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0">
-                  <c:v>22.285714285714285</c:v>
+                  <c:v>12.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>14.857142857142854</c:v>
+                  <c:v>8.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0">
-                  <c:v>7.4285714285714306</c:v>
+                  <c:v>4.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
                   <c:v>0</c:v>
@@ -1970,7 +2811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-18B6-4D71-AE3B-8462CD46772E}"/>
+              <c16:uniqueId val="{00000004-85B9-4ACA-BF3E-231A00F458CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2204,6 +3045,492 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Semana2 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart s2'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart s2'!$C$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18B6-4D71-AE3B-8462CD46772E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1471016967"/>
+        <c:axId val="1471019015"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart s2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart s2'!$C$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18B6-4D71-AE3B-8462CD46772E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart s2'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart s2'!$C$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>37.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>29.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>22.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>14.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>7.4285714285714306</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-18B6-4D71-AE3B-8462CD46772E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1471016967"/>
+        <c:axId val="1471019015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1471016967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471019015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1471019015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471016967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Semana3 Burndown Chart</a:t>
             </a:r>
           </a:p>
@@ -2652,7 +3979,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -3239,6 +4566,32 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="2AA0A4"/>
+  <a:srgbClr val="9373C0"/>
+  <a:srgbClr val="13A10E"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="CA5010"/>
+  <a:srgbClr val="57811B"/>
+  <a:srgbClr val="B146C2"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="EE5FB7"/>
+  <a:srgbClr val="008B94"/>
+  <a:srgbClr val="D77440"/>
+  <a:srgbClr val="BA58C9"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="C36BD1"/>
+  <a:srgbClr val="D06228"/>
+  <a:srgbClr val="57811B"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -5303,7 +6656,569 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDF8CC8-2260-4CF8-A04D-449CFC1B91BC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5347,7 +7262,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5393,7 +7308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5439,7 +7354,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5660,6 +7575,2156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994645F6-E2DC-4F4C-A4C6-BD6D7E6CA6DB}">
+  <dimension ref="B2:AQ44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="73.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" ht="26.25">
+      <c r="B2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="109"/>
+    </row>
+    <row r="3" spans="2:43">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="AG3" s="112"/>
+    </row>
+    <row r="4" spans="2:43" ht="15" customHeight="1">
+      <c r="B4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="95">
+        <v>45928</v>
+      </c>
+      <c r="F4" s="96">
+        <v>45929</v>
+      </c>
+      <c r="G4" s="96">
+        <v>45930</v>
+      </c>
+      <c r="H4" s="96">
+        <v>45931</v>
+      </c>
+      <c r="I4" s="96">
+        <v>45932</v>
+      </c>
+      <c r="J4" s="96">
+        <v>45933</v>
+      </c>
+      <c r="K4" s="96">
+        <v>45934</v>
+      </c>
+      <c r="L4" s="96">
+        <v>45935</v>
+      </c>
+      <c r="M4" s="96">
+        <v>45936</v>
+      </c>
+      <c r="N4" s="96">
+        <v>45937</v>
+      </c>
+      <c r="O4" s="96">
+        <v>45938</v>
+      </c>
+      <c r="P4" s="96">
+        <v>45939</v>
+      </c>
+      <c r="Q4" s="96">
+        <v>45940</v>
+      </c>
+      <c r="R4" s="96">
+        <v>45941</v>
+      </c>
+      <c r="S4" s="96">
+        <v>45942</v>
+      </c>
+      <c r="T4" s="96">
+        <v>45943</v>
+      </c>
+      <c r="U4" s="96">
+        <v>45944</v>
+      </c>
+      <c r="V4" s="96">
+        <v>45945</v>
+      </c>
+      <c r="W4" s="96">
+        <v>45946</v>
+      </c>
+      <c r="X4" s="96">
+        <v>45947</v>
+      </c>
+      <c r="Y4" s="96">
+        <v>45948</v>
+      </c>
+      <c r="Z4" s="96">
+        <v>45949</v>
+      </c>
+      <c r="AA4" s="96">
+        <v>45950</v>
+      </c>
+      <c r="AB4" s="96">
+        <v>45951</v>
+      </c>
+      <c r="AC4" s="96">
+        <v>45952</v>
+      </c>
+      <c r="AD4" s="96">
+        <v>45953</v>
+      </c>
+      <c r="AE4" s="96">
+        <v>45954</v>
+      </c>
+      <c r="AF4" s="96">
+        <v>45955</v>
+      </c>
+      <c r="AG4" s="97">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" ht="15">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" ht="15">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103">
+        <v>2</v>
+      </c>
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="103">
+        <v>1</v>
+      </c>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103">
+        <v>2</v>
+      </c>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="104"/>
+    </row>
+    <row r="7" spans="2:43" ht="15">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81">
+        <v>2</v>
+      </c>
+      <c r="I7" s="81">
+        <v>3</v>
+      </c>
+      <c r="J7" s="81">
+        <v>1</v>
+      </c>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="105"/>
+      <c r="AQ7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" ht="15">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81">
+        <v>3</v>
+      </c>
+      <c r="H8" s="81">
+        <v>2</v>
+      </c>
+      <c r="I8" s="81">
+        <v>1</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="105"/>
+    </row>
+    <row r="9" spans="2:43" ht="15">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81">
+        <v>2</v>
+      </c>
+      <c r="I9" s="81">
+        <v>3</v>
+      </c>
+      <c r="J9" s="81">
+        <v>1</v>
+      </c>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="105"/>
+    </row>
+    <row r="10" spans="2:43" ht="15">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81">
+        <v>2</v>
+      </c>
+      <c r="J10" s="81">
+        <v>2</v>
+      </c>
+      <c r="K10" s="81">
+        <v>2</v>
+      </c>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="105"/>
+    </row>
+    <row r="11" spans="2:43" ht="15">
+      <c r="B11" s="64">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="66">
+        <v>8</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81">
+        <v>3</v>
+      </c>
+      <c r="P11" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="81">
+        <v>2</v>
+      </c>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="105"/>
+    </row>
+    <row r="12" spans="2:43" ht="15">
+      <c r="B12" s="64">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="66">
+        <v>8</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81">
+        <v>1</v>
+      </c>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="81">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="105"/>
+    </row>
+    <row r="13" spans="2:43" ht="15">
+      <c r="B13" s="64">
+        <v>8</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="66">
+        <v>8</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81">
+        <v>1</v>
+      </c>
+      <c r="O13" s="81">
+        <v>2</v>
+      </c>
+      <c r="P13" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="81">
+        <v>2</v>
+      </c>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="105"/>
+    </row>
+    <row r="14" spans="2:43" ht="15">
+      <c r="B14" s="64">
+        <v>9</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="66">
+        <v>8</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81">
+        <v>3</v>
+      </c>
+      <c r="X14" s="81">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="81">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="105"/>
+    </row>
+    <row r="15" spans="2:43" ht="15">
+      <c r="B15" s="64">
+        <v>10</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="66">
+        <v>2</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81">
+        <v>2</v>
+      </c>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="105"/>
+    </row>
+    <row r="16" spans="2:43" ht="15">
+      <c r="B16" s="64">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="66">
+        <v>2</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81">
+        <v>2</v>
+      </c>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="105"/>
+    </row>
+    <row r="17" spans="2:33" ht="15">
+      <c r="B17" s="64">
+        <v>12</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="66">
+        <v>2</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81">
+        <v>2</v>
+      </c>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="105"/>
+    </row>
+    <row r="18" spans="2:33" ht="15">
+      <c r="B18" s="64">
+        <v>13</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="66">
+        <v>2</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81">
+        <v>2</v>
+      </c>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="105"/>
+    </row>
+    <row r="19" spans="2:33" ht="15">
+      <c r="B19" s="64">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="66">
+        <v>2</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81">
+        <v>2</v>
+      </c>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="105"/>
+    </row>
+    <row r="20" spans="2:33" ht="15">
+      <c r="B20" s="64">
+        <v>15</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="66">
+        <v>2</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81">
+        <v>2</v>
+      </c>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="105"/>
+    </row>
+    <row r="21" spans="2:33" ht="15">
+      <c r="B21" s="64">
+        <v>16</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="66">
+        <v>2</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81">
+        <v>2</v>
+      </c>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="105"/>
+    </row>
+    <row r="22" spans="2:33" ht="15">
+      <c r="B22" s="64">
+        <v>17</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="66">
+        <v>2</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81">
+        <v>2</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="105"/>
+    </row>
+    <row r="23" spans="2:33" ht="15">
+      <c r="B23" s="64">
+        <v>18</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="66">
+        <v>2</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81">
+        <v>2</v>
+      </c>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="105"/>
+    </row>
+    <row r="24" spans="2:33" ht="15">
+      <c r="B24" s="64">
+        <v>19</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="66">
+        <v>2</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81">
+        <v>2</v>
+      </c>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="105"/>
+    </row>
+    <row r="25" spans="2:33" ht="15">
+      <c r="B25" s="64">
+        <v>20</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="66">
+        <v>6</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81">
+        <v>2</v>
+      </c>
+      <c r="U25" s="81">
+        <v>1</v>
+      </c>
+      <c r="V25" s="81">
+        <v>2</v>
+      </c>
+      <c r="W25" s="81">
+        <v>1</v>
+      </c>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="105"/>
+    </row>
+    <row r="26" spans="2:33" ht="15">
+      <c r="B26" s="64">
+        <v>21</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="66">
+        <v>6</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="105"/>
+    </row>
+    <row r="27" spans="2:33" ht="15">
+      <c r="B27" s="64">
+        <v>22</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="66">
+        <v>6</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81">
+        <v>1</v>
+      </c>
+      <c r="V27" s="81">
+        <v>2</v>
+      </c>
+      <c r="W27" s="81">
+        <v>1</v>
+      </c>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="105"/>
+    </row>
+    <row r="28" spans="2:33" ht="15">
+      <c r="B28" s="64">
+        <v>23</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="66">
+        <v>6</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="81">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="105"/>
+    </row>
+    <row r="29" spans="2:33" ht="15">
+      <c r="B29" s="64">
+        <v>24</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="66">
+        <v>6</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81">
+        <v>1</v>
+      </c>
+      <c r="X29" s="81">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="105"/>
+    </row>
+    <row r="30" spans="2:33" ht="15">
+      <c r="B30" s="64">
+        <v>25</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="66">
+        <v>2</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="105"/>
+    </row>
+    <row r="31" spans="2:33" ht="15">
+      <c r="B31" s="64">
+        <v>26</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="66">
+        <v>6</v>
+      </c>
+      <c r="E31" s="82"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="105"/>
+    </row>
+    <row r="32" spans="2:33" ht="15">
+      <c r="B32" s="64">
+        <v>27</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="66">
+        <v>6</v>
+      </c>
+      <c r="E32" s="82"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="105"/>
+    </row>
+    <row r="33" spans="2:33" ht="15">
+      <c r="B33" s="64">
+        <v>28</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="66">
+        <v>8</v>
+      </c>
+      <c r="E33" s="82"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="105"/>
+    </row>
+    <row r="34" spans="2:33" ht="15">
+      <c r="B34" s="64">
+        <v>29</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="66">
+        <v>6</v>
+      </c>
+      <c r="E34" s="82"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="105"/>
+    </row>
+    <row r="35" spans="2:33" ht="15">
+      <c r="B35" s="64">
+        <v>30</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="66">
+        <v>6</v>
+      </c>
+      <c r="E35" s="82"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="81"/>
+      <c r="AG35" s="105"/>
+    </row>
+    <row r="36" spans="2:33" ht="15">
+      <c r="B36" s="64">
+        <v>31</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="66">
+        <v>8</v>
+      </c>
+      <c r="E36" s="82"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="105"/>
+    </row>
+    <row r="37" spans="2:33" ht="15">
+      <c r="B37" s="64">
+        <v>32</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="66">
+        <v>1</v>
+      </c>
+      <c r="E37" s="82"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="81"/>
+      <c r="AG37" s="105"/>
+    </row>
+    <row r="38" spans="2:33" ht="15">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="81"/>
+      <c r="AF38" s="81"/>
+      <c r="AG38" s="105"/>
+    </row>
+    <row r="39" spans="2:33" ht="15">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="81"/>
+      <c r="AG39" s="105"/>
+    </row>
+    <row r="40" spans="2:33" ht="15">
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="94"/>
+      <c r="AC40" s="94"/>
+      <c r="AD40" s="94"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="106"/>
+    </row>
+    <row r="41" spans="2:33" ht="15" customHeight="1">
+      <c r="B41" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="75"/>
+      <c r="D41" s="92">
+        <v>0</v>
+      </c>
+      <c r="E41" s="84">
+        <f>SUM(E6:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="85">
+        <f t="shared" ref="F41:AG41" si="0">SUM(F6:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="85">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="85">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I41" s="85">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="85">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K41" s="85">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L41" s="85">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M41" s="85">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N41" s="85">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O41" s="85">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P41" s="85">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q41" s="85">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="85">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U41" s="85">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V41" s="85">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W41" s="85">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X41" s="85">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y41" s="85">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z41" s="85">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" ht="15">
+      <c r="B42" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="13">
+        <f>SUM(D6:D41)</f>
+        <v>155</v>
+      </c>
+      <c r="E42" s="87">
+        <f>D42-SUM(E6:E40)</f>
+        <v>155</v>
+      </c>
+      <c r="F42" s="83">
+        <f t="shared" ref="F42:AG42" si="1">E42-SUM(F6:F40)</f>
+        <v>155</v>
+      </c>
+      <c r="G42" s="83">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H42" s="83">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="I42" s="83">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="J42" s="83">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="K42" s="83">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="L42" s="83">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="M42" s="83">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="N42" s="83">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="O42" s="83">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="P42" s="83">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="Q42" s="83">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="R42" s="83">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="S42" s="83">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="T42" s="83">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="U42" s="83">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="V42" s="83">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="W42" s="83">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="X42" s="83">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="Y42" s="83">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="Z42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AA42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AB42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AC42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AD42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AE42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AF42" s="83">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="AG42" s="88">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" ht="15">
+      <c r="B43" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="17">
+        <f>D42</f>
+        <v>155</v>
+      </c>
+      <c r="E43" s="89">
+        <f>$D$43-($D$43/29*1)</f>
+        <v>149.65517241379311</v>
+      </c>
+      <c r="F43" s="90">
+        <f>$D$43-($D$43/29*2)</f>
+        <v>144.31034482758622</v>
+      </c>
+      <c r="G43" s="90">
+        <f>$D$43-($D$43/29*3)</f>
+        <v>138.9655172413793</v>
+      </c>
+      <c r="H43" s="90">
+        <f>$D$43-($D$43/29*4)</f>
+        <v>133.62068965517241</v>
+      </c>
+      <c r="I43" s="90">
+        <f>$D$43-($D$43/29*5)</f>
+        <v>128.27586206896552</v>
+      </c>
+      <c r="J43" s="90">
+        <f>$D$43-($D$43/29*6)</f>
+        <v>122.93103448275862</v>
+      </c>
+      <c r="K43" s="90">
+        <f>$D$43-($D$43/29*7)</f>
+        <v>117.58620689655172</v>
+      </c>
+      <c r="L43" s="90">
+        <f>$D$43-($D$43/29*8)</f>
+        <v>112.24137931034483</v>
+      </c>
+      <c r="M43" s="90">
+        <f>$D$43-($D$43/29*9)</f>
+        <v>106.89655172413794</v>
+      </c>
+      <c r="N43" s="90">
+        <f>$D$43-($D$43/29*10)</f>
+        <v>101.55172413793103</v>
+      </c>
+      <c r="O43" s="90">
+        <f>$D$43-($D$43/29*11)</f>
+        <v>96.206896551724128</v>
+      </c>
+      <c r="P43" s="90">
+        <f>$D$43-($D$43/29*12)</f>
+        <v>90.862068965517238</v>
+      </c>
+      <c r="Q43" s="90">
+        <f>$D$43-($D$43/29*13)</f>
+        <v>85.517241379310349</v>
+      </c>
+      <c r="R43" s="90">
+        <f>$D$43-($D$43/29*14)</f>
+        <v>80.172413793103445</v>
+      </c>
+      <c r="S43" s="90">
+        <f>$D$43-($D$43/29*15)</f>
+        <v>74.827586206896541</v>
+      </c>
+      <c r="T43" s="90">
+        <f>$D$43-($D$43/29*16)</f>
+        <v>69.482758620689651</v>
+      </c>
+      <c r="U43" s="90">
+        <f>$D$43-($D$43/29*17)</f>
+        <v>64.137931034482762</v>
+      </c>
+      <c r="V43" s="90">
+        <f>$D$43-($D$43/29*18)</f>
+        <v>58.793103448275858</v>
+      </c>
+      <c r="W43" s="90">
+        <f>$D$43-($D$43/29*19)</f>
+        <v>53.448275862068954</v>
+      </c>
+      <c r="X43" s="90">
+        <f>$D$43-($D$43/29*20)</f>
+        <v>48.103448275862064</v>
+      </c>
+      <c r="Y43" s="90">
+        <f>$D$43-($D$43/29*21)</f>
+        <v>42.758620689655174</v>
+      </c>
+      <c r="Z43" s="90">
+        <f>$D$43-($D$43/29*22)</f>
+        <v>37.41379310344827</v>
+      </c>
+      <c r="AA43" s="90">
+        <f>$D$43-($D$43/29*23)</f>
+        <v>32.068965517241367</v>
+      </c>
+      <c r="AB43" s="90">
+        <f>$D$43-($D$43/29*24)</f>
+        <v>26.724137931034477</v>
+      </c>
+      <c r="AC43" s="90">
+        <f>$D$43-($D$43/29*25)</f>
+        <v>21.379310344827587</v>
+      </c>
+      <c r="AD43" s="90">
+        <f>$D$43-($D$43/29*26)</f>
+        <v>16.034482758620697</v>
+      </c>
+      <c r="AE43" s="90">
+        <f>$D$43-($D$43/29*27)</f>
+        <v>10.689655172413779</v>
+      </c>
+      <c r="AF43" s="90">
+        <f>$D$43-($D$43/29*28)</f>
+        <v>5.3448275862068897</v>
+      </c>
+      <c r="AG43" s="91">
+        <f>$D$43-($D$43/29*29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" ht="33">
+      <c r="Q44" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B2:AG2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N13"/>
   <sheetViews>
@@ -5676,39 +9741,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24.4">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -5734,9 +9799,9 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5759,7 +9824,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -5767,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>6</v>
@@ -5799,7 +9864,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
@@ -5826,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -5834,7 +9899,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D8" s="6">
         <v>6</v>
@@ -5866,7 +9931,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6">
         <v>6</v>
@@ -5898,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6">
         <v>6</v>
@@ -5926,10 +9991,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1">
-      <c r="B11" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="68"/>
+      <c r="B11" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="75"/>
       <c r="D11" s="10">
         <v>0</v>
       </c>
@@ -5964,10 +10029,10 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="69"/>
+      <c r="B12" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="68"/>
       <c r="D12" s="13">
         <f>SUM(D6:D11)</f>
         <v>30</v>
@@ -6002,10 +10067,10 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="70"/>
+      <c r="B13" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="69"/>
       <c r="D13" s="17">
         <f>D12</f>
         <v>30</v>
@@ -6056,12 +10121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="C4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6073,39 +10138,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.4">
-      <c r="B2" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -6131,9 +10196,9 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -6161,7 +10226,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <v>8</v>
@@ -6185,7 +10250,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6">
         <v>8</v>
@@ -6203,7 +10268,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>8</v>
@@ -6229,7 +10294,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
@@ -6247,7 +10312,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
@@ -6267,7 +10332,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -6287,7 +10352,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -6307,7 +10372,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -6327,7 +10392,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6347,7 +10412,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -6367,7 +10432,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -6387,7 +10452,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -6407,7 +10472,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -6427,7 +10492,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -6443,10 +10508,10 @@
       <c r="K19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="68"/>
+      <c r="B20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="75"/>
       <c r="D20" s="10">
         <v>0</v>
       </c>
@@ -6481,10 +10546,10 @@
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="68"/>
       <c r="D21" s="13">
         <f>SUM(D6:D20)</f>
         <v>52</v>
@@ -6519,10 +10584,10 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="70"/>
+      <c r="B22" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="69"/>
       <c r="D22" s="17">
         <f>D21</f>
         <v>52</v>
@@ -6573,12 +10638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6590,39 +10655,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="24.4">
-      <c r="B2" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" ht="13.9" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -6648,9 +10713,9 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +10743,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6">
         <v>6</v>
@@ -6704,7 +10769,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
@@ -6726,7 +10791,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6">
         <v>6</v>
@@ -6752,7 +10817,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6">
         <v>6</v>
@@ -6774,7 +10839,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6">
         <v>6</v>
@@ -6796,7 +10861,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -6816,7 +10881,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6">
         <v>8</v>
@@ -6840,7 +10905,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6">
         <v>8</v>
@@ -6860,10 +10925,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1">
-      <c r="B14" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="68"/>
+      <c r="B14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="75"/>
       <c r="D14" s="10">
         <v>0</v>
       </c>
@@ -6898,10 +10963,10 @@
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="69"/>
+      <c r="B15" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="68"/>
       <c r="D15" s="13">
         <f>SUM(D6:D13)</f>
         <v>48</v>
@@ -6936,10 +11001,10 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="70"/>
+      <c r="B16" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="69"/>
       <c r="D16" s="17">
         <f>D15</f>
         <v>48</v>
@@ -6990,12 +11055,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB033BE-A72B-4EA3-AC4C-B7AE6DA7F6BD}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7007,39 +11072,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="26.25">
-      <c r="B2" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" ht="13.9" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -7065,9 +11130,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7095,7 +11160,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -7113,7 +11178,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
@@ -7131,7 +11196,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -7149,7 +11214,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6">
         <v>6</v>
@@ -7167,7 +11232,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6">
         <v>6</v>
@@ -7185,7 +11250,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" s="6">
         <v>8</v>
@@ -7203,7 +11268,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6">
         <v>6</v>
@@ -7221,7 +11286,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
@@ -7239,7 +11304,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6">
         <v>8</v>
@@ -7257,7 +11322,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -7271,10 +11336,10 @@
       <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1">
-      <c r="B16" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="68"/>
+      <c r="B16" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="75"/>
       <c r="D16" s="10">
         <v>0</v>
       </c>
@@ -7309,10 +11374,10 @@
       <c r="L16" s="46"/>
     </row>
     <row r="17" spans="2:11" ht="15">
-      <c r="B17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="69"/>
+      <c r="B17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="68"/>
       <c r="D17" s="13">
         <f>SUM(D6:D15)</f>
         <v>51</v>
@@ -7347,10 +11412,10 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15">
-      <c r="B18" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="70"/>
+      <c r="B18" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="69"/>
       <c r="D18" s="17">
         <f>D17</f>
         <v>51</v>
@@ -7401,12 +11466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -7425,7 +11490,7 @@
     </row>
     <row r="2" spans="2:12" ht="22.15">
       <c r="B2" s="76" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -7434,30 +11499,30 @@
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="L2" s="3" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="77" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -7469,7 +11534,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="79"/>
       <c r="L4" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -7477,16 +11542,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E5" s="25">
         <v>3</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G5" s="26">
         <v>45930</v>
@@ -7501,16 +11566,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E6" s="29">
         <v>3</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G6" s="30">
         <v>45931</v>
@@ -7520,7 +11585,7 @@
         <v>45933</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -7528,16 +11593,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E7" s="29">
         <v>3</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G7" s="30">
         <v>45930</v>
@@ -7552,16 +11617,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E8" s="28">
         <v>3</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G8" s="30">
         <v>45931</v>
@@ -7576,16 +11641,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E9" s="28">
         <v>3</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G9" s="30">
         <v>45932</v>
@@ -7600,21 +11665,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E10" s="33">
         <v>6</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="G10" s="34">
         <v>45935</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="62">
         <f>G10+E10-1</f>
         <v>45940</v>
       </c>
@@ -7624,21 +11689,21 @@
         <v>7</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E11" s="33">
         <v>3</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="G11" s="34">
         <v>45946</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="62">
         <f>G11+E11-1</f>
         <v>45948</v>
       </c>
@@ -7648,21 +11713,21 @@
         <v>8</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E12" s="33">
         <v>6</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G12" s="34">
         <v>45935</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="62">
         <f>G12+E12-1</f>
         <v>45940</v>
       </c>
@@ -7672,21 +11737,21 @@
         <v>9</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E13" s="33">
         <v>3</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G13" s="34">
         <v>45945</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="62">
         <f>G13+E13-1</f>
         <v>45947</v>
       </c>
@@ -7696,21 +11761,21 @@
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E14" s="33">
         <v>1</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G14" s="34">
         <v>45937</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="62">
         <f>G14+E14-1</f>
         <v>45937</v>
       </c>
@@ -7720,21 +11785,21 @@
         <v>11</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E15" s="33">
         <v>1</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G15" s="34">
         <v>45936</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="62">
         <f>G15+E15-1</f>
         <v>45936</v>
       </c>
@@ -7744,21 +11809,21 @@
         <v>12</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E16" s="33">
         <v>1</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G16" s="34">
         <v>45937</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="62">
         <f>G16+E16-1</f>
         <v>45937</v>
       </c>
@@ -7768,21 +11833,21 @@
         <v>13</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E17" s="33">
         <v>1</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G17" s="34">
         <v>45935</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="62">
         <f>G17+E17-1</f>
         <v>45935</v>
       </c>
@@ -7792,21 +11857,21 @@
         <v>14</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E18" s="33">
         <v>1</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G18" s="34">
         <v>45936</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="62">
         <f>G18+E18-1</f>
         <v>45936</v>
       </c>
@@ -7816,21 +11881,21 @@
         <v>15</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E19" s="33">
         <v>1</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G19" s="34">
         <v>45937</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="62">
         <f>G19+E19-1</f>
         <v>45937</v>
       </c>
@@ -7840,21 +11905,21 @@
         <v>16</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E20" s="33">
         <v>1</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G20" s="34">
         <v>45935</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="62">
         <f>G20+E20-1</f>
         <v>45935</v>
       </c>
@@ -7864,21 +11929,21 @@
         <v>17</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E21" s="33">
         <v>1</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G21" s="34">
         <v>45936</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="62">
         <f>G21+E21-1</f>
         <v>45936</v>
       </c>
@@ -7889,21 +11954,21 @@
         <v>18</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E22" s="40">
         <v>1</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G22" s="41">
         <v>45936</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="62">
         <f>G22+E22-1</f>
         <v>45936</v>
       </c>
@@ -7914,21 +11979,21 @@
         <v>19</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E23" s="33">
         <v>1</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G23" s="34">
         <v>45935</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="62">
         <f>G23+E23-1</f>
         <v>45935</v>
       </c>
@@ -7938,16 +12003,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E24" s="28">
         <v>3</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G24" s="44">
         <v>45943</v>
@@ -7962,22 +12027,22 @@
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E25" s="28">
         <v>3</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G25" s="44">
         <v>45947</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -7985,16 +12050,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E26" s="28">
         <v>3</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G26" s="44">
         <v>45944</v>
@@ -8009,20 +12074,20 @@
         <v>23</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E27" s="28">
         <v>3</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="27" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -8030,22 +12095,22 @@
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E28" s="28">
         <v>3</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G28" s="44">
         <v>16</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -8053,16 +12118,16 @@
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E29" s="28">
         <v>1</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="G29" s="44">
         <v>45948</v>
@@ -8077,21 +12142,21 @@
         <v>26</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E30" s="60">
         <v>3</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="65">
+        <v>105</v>
+      </c>
+      <c r="G30" s="63">
         <v>45950</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="62">
         <f t="shared" ref="H30:H37" si="1">G30+E30-1</f>
         <v>45952</v>
       </c>
@@ -8101,21 +12166,21 @@
         <v>27</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E31" s="60">
         <v>3</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="65">
+        <v>105</v>
+      </c>
+      <c r="G31" s="63">
         <v>45952</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="62">
         <f t="shared" si="1"/>
         <v>45954</v>
       </c>
@@ -8125,21 +12190,21 @@
         <v>28</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E32" s="60">
         <v>4</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="65">
+        <v>105</v>
+      </c>
+      <c r="G32" s="63">
         <v>45953</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="62">
         <f t="shared" si="1"/>
         <v>45956</v>
       </c>
@@ -8149,21 +12214,21 @@
         <v>29</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E33" s="60">
         <v>3</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="65">
+        <v>107</v>
+      </c>
+      <c r="G33" s="63">
         <v>45952</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="62">
         <f t="shared" si="1"/>
         <v>45954</v>
       </c>
@@ -8173,21 +12238,21 @@
         <v>30</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E34" s="60">
         <v>3</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="65">
+        <v>107</v>
+      </c>
+      <c r="G34" s="63">
         <v>45950</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="62">
         <f t="shared" si="1"/>
         <v>45952</v>
       </c>
@@ -8197,21 +12262,21 @@
         <v>31</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E35" s="60">
         <v>4</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="65">
+        <v>107</v>
+      </c>
+      <c r="G35" s="63">
         <v>45953</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="62">
         <f t="shared" si="1"/>
         <v>45956</v>
       </c>
@@ -8221,35 +12286,42 @@
         <v>32</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="60">
-        <v>1</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="65">
-        <v>45956</v>
-      </c>
-      <c r="H36" s="64">
+        <v>123</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="62">
         <f t="shared" si="1"/>
-        <v>45956</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="61">
         <v>33</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
+      <c r="C37" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="60">
+        <v>1</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="63">
+        <v>45956</v>
+      </c>
+      <c r="H37" s="62">
+        <f t="shared" ref="H37" si="2">G37+E37-1</f>
+        <v>45956</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -8345,7 +12417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4"/>
   <sheetViews>
@@ -8357,7 +12429,7 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
